--- a/files/(GRO)KV_CTA_D3.xlsx
+++ b/files/(GRO)KV_CTA_D3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyselenium\pyselenium\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D41DD-88FE-40EC-8AD6-4AE5F0E3C84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFBEF59-D23F-4076-854E-7EA0072D1492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -736,7 +736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -808,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -856,7 +856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -880,7 +880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -905,7 +905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
